--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.28.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.28.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1353,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1563,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1927,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2123,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2305,7 +2305,7 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -2417,7 +2417,7 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2431,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2809,7 +2809,7 @@
         <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
